--- a/data/AddCandidateTest.xlsx
+++ b/data/AddCandidateTest.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/AddCandidateTest.xlsx
+++ b/data/AddCandidateTest.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
